--- a/flows/COM_fund_flow_data.xlsx
+++ b/flows/COM_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1738"/>
+  <dimension ref="A1:B1756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17815,6 +17815,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1739">
+      <c r="A1739" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B1739" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B1740" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1741" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B1742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B1743" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B1744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1745" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1746" t="n">
+        <v>1.3925</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1747" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1748" t="n">
+        <v>-1.4062</v>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1749" t="n">
+        <v>-2.8131</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1750" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1751" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1752" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B1753" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B1754" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B1755" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B1756" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
